--- a/biology/Médecine/Wladimir_Liberson/Wladimir_Liberson.xlsx
+++ b/biology/Médecine/Wladimir_Liberson/Wladimir_Liberson.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Wladimir Liberson est un médecin et physiologiste américain né à Kiev le 2 août 1904 et mort à Miami le 3 septembre 1994.
 </t>
@@ -511,10 +523,12 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Il gagna les États-Unis grâce à la « liste[1],[2]Rapkine » et la Fondation Rockefeller[3]. 
-Il fit ensuite une carrière universitaires aux États-Unis[4].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Il gagna les États-Unis grâce à la « liste,Rapkine » et la Fondation Rockefeller. 
+Il fit ensuite une carrière universitaires aux États-Unis.
 </t>
         </is>
       </c>
@@ -543,7 +557,9 @@
           <t>Publications</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>1936 : Métabolisme et obésité, Conservatoire des Arts et Métiers, collection Travail humain, dirigée par Henri Laugier
 1937 : Contribution à l'étude de l'électroencéphalogramme humain, avec Henri Laugier
